--- a/Boxplot_comparativo_entre_os_3_setores.xlsx
+++ b/Boxplot_comparativo_entre_os_3_setores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISMART\OneDrive - Ismart - Instituto Social M.A.R.T\Documentos\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05124B51-581A-49F1-85AC-C206E68CB2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637AD78D-7760-42B4-9D40-59311B5B3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-8910" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13136" uniqueCount="2278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13136" uniqueCount="2277">
   <si>
     <t>1º Setor (Público)</t>
   </si>
@@ -6906,9 +6906,6 @@
   </si>
   <si>
     <t>FORMADO</t>
-  </si>
-  <si>
-    <t>formado</t>
   </si>
   <si>
     <t>Oportunidade validada</t>
@@ -9134,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9278881D-A3FD-4B4C-B916-ECF09103B222}">
   <dimension ref="A1:S1284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D809" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I836" sqref="I836"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27783,7 +27780,7 @@
         <v>933</v>
       </c>
       <c r="N316" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="O316" t="s">
         <v>1853</v>
@@ -36146,7 +36143,7 @@
         <v>1373</v>
       </c>
       <c r="I458" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J458" s="11">
         <v>2016</v>
@@ -36205,7 +36202,7 @@
         <v>448</v>
       </c>
       <c r="I459" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J459" s="11">
         <v>2023</v>
@@ -36264,7 +36261,7 @@
         <v>517</v>
       </c>
       <c r="I460" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J460" s="11">
         <v>2024</v>
@@ -36323,7 +36320,7 @@
         <v>533</v>
       </c>
       <c r="I461" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J461" s="11">
         <v>2025</v>
@@ -36382,7 +36379,7 @@
         <v>549</v>
       </c>
       <c r="I462" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J462" s="11">
         <v>2023</v>
@@ -36441,7 +36438,7 @@
         <v>627</v>
       </c>
       <c r="I463" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J463" s="11">
         <v>2024</v>
@@ -36500,7 +36497,7 @@
         <v>661</v>
       </c>
       <c r="I464" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J464" s="11">
         <v>2026</v>
@@ -36559,7 +36556,7 @@
         <v>1418</v>
       </c>
       <c r="I465" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J465" s="11">
         <v>2023</v>
@@ -36618,7 +36615,7 @@
         <v>847</v>
       </c>
       <c r="I466" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J466" s="11">
         <v>2022</v>
@@ -36677,7 +36674,7 @@
         <v>1384</v>
       </c>
       <c r="I467" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J467" s="11">
         <v>2023</v>
@@ -36736,7 +36733,7 @@
         <v>918</v>
       </c>
       <c r="I468" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J468" s="11">
         <v>2023</v>
@@ -36795,7 +36792,7 @@
         <v>427</v>
       </c>
       <c r="I469" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J469" s="11">
         <v>2023</v>
@@ -36854,7 +36851,7 @@
         <v>1380</v>
       </c>
       <c r="I470" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J470" s="11">
         <v>2022</v>
@@ -36913,7 +36910,7 @@
         <v>435</v>
       </c>
       <c r="I471" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J471" s="11">
         <v>2024</v>
@@ -36972,7 +36969,7 @@
         <v>1476</v>
       </c>
       <c r="I472" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J472" s="11">
         <v>2025</v>
@@ -37031,7 +37028,7 @@
         <v>1501</v>
       </c>
       <c r="I473" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J473" s="11">
         <v>2024</v>
@@ -37090,7 +37087,7 @@
         <v>1394</v>
       </c>
       <c r="I474" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J474" s="11">
         <v>2023</v>
@@ -37149,7 +37146,7 @@
         <v>1330</v>
       </c>
       <c r="I475" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J475" s="11">
         <v>2024</v>
@@ -37208,7 +37205,7 @@
         <v>1616</v>
       </c>
       <c r="I476" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J476" s="11">
         <v>2024</v>
@@ -37267,7 +37264,7 @@
         <v>1618</v>
       </c>
       <c r="I477" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J477" s="11">
         <v>2023</v>
@@ -37326,7 +37323,7 @@
         <v>449</v>
       </c>
       <c r="I478" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J478" s="11">
         <v>2026</v>
@@ -37385,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J479" s="11">
         <v>2023</v>
@@ -37444,7 +37441,7 @@
         <v>1492</v>
       </c>
       <c r="I480" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J480" s="11">
         <v>2024</v>
@@ -37503,7 +37500,7 @@
         <v>461</v>
       </c>
       <c r="I481" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J481" s="11">
         <v>2025</v>
@@ -37562,7 +37559,7 @@
         <v>1452</v>
       </c>
       <c r="I482" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J482" s="11">
         <v>2024</v>
@@ -37621,7 +37618,7 @@
         <v>1493</v>
       </c>
       <c r="I483" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J483" s="11">
         <v>2025</v>
@@ -37680,7 +37677,7 @@
         <v>466</v>
       </c>
       <c r="I484" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J484" s="11">
         <v>2024</v>
@@ -37739,7 +37736,7 @@
         <v>1426</v>
       </c>
       <c r="I485" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J485" s="11">
         <v>2026</v>
@@ -37798,7 +37795,7 @@
         <v>1340</v>
       </c>
       <c r="I486" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J486" s="11">
         <v>2024</v>
@@ -37857,7 +37854,7 @@
         <v>1573</v>
       </c>
       <c r="I487" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J487" s="11">
         <v>2025</v>
@@ -37916,7 +37913,7 @@
         <v>472</v>
       </c>
       <c r="I488" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J488" s="11">
         <v>2024</v>
@@ -37975,7 +37972,7 @@
         <v>1513</v>
       </c>
       <c r="I489" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J489" s="11">
         <v>2028</v>
@@ -38034,7 +38031,7 @@
         <v>474</v>
       </c>
       <c r="I490" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J490" s="11">
         <v>2024</v>
@@ -38093,7 +38090,7 @@
         <v>476</v>
       </c>
       <c r="I491" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J491" s="11">
         <v>2024</v>
@@ -38152,7 +38149,7 @@
         <v>480</v>
       </c>
       <c r="I492" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J492" s="11">
         <v>2025</v>
@@ -38211,7 +38208,7 @@
         <v>482</v>
       </c>
       <c r="I493" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J493" s="11">
         <v>2023</v>
@@ -38270,7 +38267,7 @@
         <v>484</v>
       </c>
       <c r="I494" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J494" s="11">
         <v>2023</v>
@@ -38329,7 +38326,7 @@
         <v>487</v>
       </c>
       <c r="I495" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J495" s="11">
         <v>2024</v>
@@ -38388,7 +38385,7 @@
         <v>1473</v>
       </c>
       <c r="I496" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J496" s="11">
         <v>2024</v>
@@ -38447,7 +38444,7 @@
         <v>491</v>
       </c>
       <c r="I497" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J497" s="11">
         <v>2023</v>
@@ -38506,7 +38503,7 @@
         <v>1402</v>
       </c>
       <c r="I498" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J498" s="11">
         <v>2023</v>
@@ -38565,7 +38562,7 @@
         <v>1505</v>
       </c>
       <c r="I499" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J499" s="11">
         <v>2025</v>
@@ -38624,7 +38621,7 @@
         <v>1432</v>
       </c>
       <c r="I500" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J500" s="11">
         <v>2023</v>
@@ -38683,7 +38680,7 @@
         <v>498</v>
       </c>
       <c r="I501" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J501" s="11">
         <v>2024</v>
@@ -38742,7 +38739,7 @@
         <v>1497</v>
       </c>
       <c r="I502" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J502" s="11">
         <v>2024</v>
@@ -38801,7 +38798,7 @@
         <v>503</v>
       </c>
       <c r="I503" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J503" s="11">
         <v>2023</v>
@@ -38860,7 +38857,7 @@
         <v>505</v>
       </c>
       <c r="I504" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J504" s="11">
         <v>2024</v>
@@ -38919,7 +38916,7 @@
         <v>509</v>
       </c>
       <c r="I505" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J505" s="11">
         <v>2024</v>
@@ -38978,7 +38975,7 @@
         <v>511</v>
       </c>
       <c r="I506" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J506" s="11">
         <v>2023</v>
@@ -39037,7 +39034,7 @@
         <v>513</v>
       </c>
       <c r="I507" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J507" s="11">
         <v>2023</v>
@@ -39096,7 +39093,7 @@
         <v>515</v>
       </c>
       <c r="I508" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J508" s="11">
         <v>2023</v>
@@ -39155,7 +39152,7 @@
         <v>459</v>
       </c>
       <c r="I509" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J509" s="11">
         <v>2023</v>
@@ -39214,7 +39211,7 @@
         <v>525</v>
       </c>
       <c r="I510" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J510" s="11">
         <v>2023</v>
@@ -39273,7 +39270,7 @@
         <v>537</v>
       </c>
       <c r="I511" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J511" s="11">
         <v>2023</v>
@@ -39332,7 +39329,7 @@
         <v>541</v>
       </c>
       <c r="I512" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J512" s="11">
         <v>2024</v>
@@ -39391,7 +39388,7 @@
         <v>547</v>
       </c>
       <c r="I513" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J513" s="11">
         <v>2024</v>
@@ -39450,7 +39447,7 @@
         <v>1376</v>
       </c>
       <c r="I514" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J514" s="11">
         <v>2021</v>
@@ -39509,7 +39506,7 @@
         <v>1475</v>
       </c>
       <c r="I515" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J515" s="11">
         <v>2024</v>
@@ -39568,7 +39565,7 @@
         <v>559</v>
       </c>
       <c r="I516" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J516" s="11">
         <v>2024</v>
@@ -39627,7 +39624,7 @@
         <v>563</v>
       </c>
       <c r="I517" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J517" s="11">
         <v>2026</v>
@@ -39686,7 +39683,7 @@
         <v>1408</v>
       </c>
       <c r="I518" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J518" s="11">
         <v>2023</v>
@@ -39745,7 +39742,7 @@
         <v>567</v>
       </c>
       <c r="I519" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J519" s="11">
         <v>2023</v>
@@ -39804,7 +39801,7 @@
         <v>572</v>
       </c>
       <c r="I520" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J520" s="11">
         <v>2023</v>
@@ -39863,7 +39860,7 @@
         <v>573</v>
       </c>
       <c r="I521" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J521" s="11">
         <v>2024</v>
@@ -39922,7 +39919,7 @@
         <v>575</v>
       </c>
       <c r="I522" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J522" s="11">
         <v>2023</v>
@@ -39981,7 +39978,7 @@
         <v>1619</v>
       </c>
       <c r="I523" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J523" s="11">
         <v>2023</v>
@@ -40040,7 +40037,7 @@
         <v>1583</v>
       </c>
       <c r="I524" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J524" s="11">
         <v>2025</v>
@@ -40099,7 +40096,7 @@
         <v>1331</v>
       </c>
       <c r="I525" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J525" s="11">
         <v>2025</v>
@@ -40158,7 +40155,7 @@
         <v>578</v>
       </c>
       <c r="I526" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J526" s="11">
         <v>2024</v>
@@ -40217,7 +40214,7 @@
         <v>1457</v>
       </c>
       <c r="I527" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J527" s="11">
         <v>2023</v>
@@ -40276,7 +40273,7 @@
         <v>588</v>
       </c>
       <c r="I528" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J528" s="11">
         <v>2023</v>
@@ -40335,7 +40332,7 @@
         <v>1315</v>
       </c>
       <c r="I529" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J529" s="11">
         <v>2024</v>
@@ -40394,7 +40391,7 @@
         <v>1395</v>
       </c>
       <c r="I530" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J530" s="11">
         <v>2022</v>
@@ -40453,7 +40450,7 @@
         <v>1406</v>
       </c>
       <c r="I531" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J531" s="11">
         <v>2024</v>
@@ -40512,7 +40509,7 @@
         <v>2147</v>
       </c>
       <c r="I532" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J532" s="11">
         <v>2024</v>
@@ -40571,7 +40568,7 @@
         <v>595</v>
       </c>
       <c r="I533" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J533" s="11">
         <v>2023</v>
@@ -40630,7 +40627,7 @@
         <v>597</v>
       </c>
       <c r="I534" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J534" s="11">
         <v>2022</v>
@@ -40689,7 +40686,7 @@
         <v>602</v>
       </c>
       <c r="I535" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J535" s="11">
         <v>2023</v>
@@ -40748,7 +40745,7 @@
         <v>1443</v>
       </c>
       <c r="I536" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J536" s="11">
         <v>2024</v>
@@ -40807,7 +40804,7 @@
         <v>1489</v>
       </c>
       <c r="I537" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J537" s="11">
         <v>2024</v>
@@ -40866,7 +40863,7 @@
         <v>606</v>
       </c>
       <c r="I538" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J538" s="11">
         <v>2024</v>
@@ -40925,7 +40922,7 @@
         <v>1524</v>
       </c>
       <c r="I539" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J539" s="11">
         <v>2026</v>
@@ -40984,7 +40981,7 @@
         <v>1417</v>
       </c>
       <c r="I540" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J540" s="11">
         <v>2024</v>
@@ -41043,7 +41040,7 @@
         <v>1517</v>
       </c>
       <c r="I541" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J541" s="11">
         <v>2024</v>
@@ -41102,7 +41099,7 @@
         <v>480</v>
       </c>
       <c r="I542" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J542" s="11">
         <v>2023</v>
@@ -41161,7 +41158,7 @@
         <v>1333</v>
       </c>
       <c r="I543" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J543" s="11">
         <v>2024</v>
@@ -41220,7 +41217,7 @@
         <v>1463</v>
       </c>
       <c r="I544" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J544" s="11">
         <v>2025</v>
@@ -41279,7 +41276,7 @@
         <v>459</v>
       </c>
       <c r="I545" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J545" s="11">
         <v>2024</v>
@@ -41338,7 +41335,7 @@
         <v>1308</v>
       </c>
       <c r="I546" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J546" s="11">
         <v>2024</v>
@@ -41397,7 +41394,7 @@
         <v>1480</v>
       </c>
       <c r="I547" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J547" s="11">
         <v>2024</v>
@@ -41456,7 +41453,7 @@
         <v>1525</v>
       </c>
       <c r="I548" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J548" s="11">
         <v>2025</v>
@@ -41515,7 +41512,7 @@
         <v>1458</v>
       </c>
       <c r="I549" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J549" s="11">
         <v>2026</v>
@@ -41574,7 +41571,7 @@
         <v>625</v>
       </c>
       <c r="I550" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J550" s="11">
         <v>2024</v>
@@ -41633,7 +41630,7 @@
         <v>459</v>
       </c>
       <c r="I551" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J551" s="11">
         <v>2024</v>
@@ -41692,7 +41689,7 @@
         <v>1607</v>
       </c>
       <c r="I552" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J552" s="11">
         <v>2024</v>
@@ -41751,7 +41748,7 @@
         <v>632</v>
       </c>
       <c r="I553" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J553" s="11">
         <v>2025</v>
@@ -41810,7 +41807,7 @@
         <v>1440</v>
       </c>
       <c r="I554" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J554" s="11">
         <v>2023</v>
@@ -41869,7 +41866,7 @@
         <v>639</v>
       </c>
       <c r="I555" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J555" s="11">
         <v>2025</v>
@@ -41928,7 +41925,7 @@
         <v>647</v>
       </c>
       <c r="I556" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J556" s="11">
         <v>2024</v>
@@ -41987,7 +41984,7 @@
         <v>1381</v>
       </c>
       <c r="I557" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J557" s="11">
         <v>2022</v>
@@ -42046,7 +42043,7 @@
         <v>1429</v>
       </c>
       <c r="I558" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J558" s="11">
         <v>2023</v>
@@ -42105,7 +42102,7 @@
         <v>1568</v>
       </c>
       <c r="I559" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J559" s="11">
         <v>2025</v>
@@ -42164,7 +42161,7 @@
         <v>1378</v>
       </c>
       <c r="I560" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J560" s="11">
         <v>2023</v>
@@ -42223,7 +42220,7 @@
         <v>1342</v>
       </c>
       <c r="I561" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J561" s="11">
         <v>2024</v>
@@ -42282,7 +42279,7 @@
         <v>1533</v>
       </c>
       <c r="I562" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J562" s="11">
         <v>2025</v>
@@ -42341,7 +42338,7 @@
         <v>1561</v>
       </c>
       <c r="I563" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J563" s="11">
         <v>2025</v>
@@ -42400,7 +42397,7 @@
         <v>1345</v>
       </c>
       <c r="I564" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J564" s="11">
         <v>2024</v>
@@ -42459,7 +42456,7 @@
         <v>1552</v>
       </c>
       <c r="I565" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J565" s="11">
         <v>2025</v>
@@ -42518,7 +42515,7 @@
         <v>659</v>
       </c>
       <c r="I566" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J566" s="11">
         <v>2024</v>
@@ -42577,7 +42574,7 @@
         <v>1509</v>
       </c>
       <c r="I567" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J567" s="11">
         <v>2024</v>
@@ -42636,7 +42633,7 @@
         <v>1348</v>
       </c>
       <c r="I568" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J568" s="11">
         <v>2026</v>
@@ -42695,7 +42692,7 @@
         <v>1334</v>
       </c>
       <c r="I569" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J569" s="11">
         <v>2026</v>
@@ -42754,7 +42751,7 @@
         <v>1494</v>
       </c>
       <c r="I570" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J570" s="11">
         <v>2026</v>
@@ -42813,7 +42810,7 @@
         <v>1538</v>
       </c>
       <c r="I571" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J571" s="11">
         <v>2025</v>
@@ -42872,7 +42869,7 @@
         <v>1507</v>
       </c>
       <c r="I572" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J572" s="11">
         <v>2024</v>
@@ -42931,7 +42928,7 @@
         <v>1624</v>
       </c>
       <c r="I573" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J573" s="11">
         <v>2024</v>
@@ -42990,7 +42987,7 @@
         <v>664</v>
       </c>
       <c r="I574" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J574" s="11">
         <v>2026</v>
@@ -43049,7 +43046,7 @@
         <v>1516</v>
       </c>
       <c r="I575" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J575" s="11">
         <v>2026</v>
@@ -43108,7 +43105,7 @@
         <v>1614</v>
       </c>
       <c r="I576" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J576" s="11">
         <v>2024</v>
@@ -43167,7 +43164,7 @@
         <v>1427</v>
       </c>
       <c r="I577" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J577" s="11">
         <v>2022</v>
@@ -43226,7 +43223,7 @@
         <v>669</v>
       </c>
       <c r="I578" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J578" s="11">
         <v>2024</v>
@@ -43285,7 +43282,7 @@
         <v>1356</v>
       </c>
       <c r="I579" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J579" s="11">
         <v>2023</v>
@@ -43344,7 +43341,7 @@
         <v>680</v>
       </c>
       <c r="I580" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J580" s="11">
         <v>2025</v>
@@ -43403,7 +43400,7 @@
         <v>1488</v>
       </c>
       <c r="I581" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J581" s="11">
         <v>2024</v>
@@ -43462,7 +43459,7 @@
         <v>1352</v>
       </c>
       <c r="I582" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J582" s="11">
         <v>2027</v>
@@ -43521,7 +43518,7 @@
         <v>686</v>
       </c>
       <c r="I583" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J583" s="11">
         <v>2025</v>
@@ -43580,7 +43577,7 @@
         <v>689</v>
       </c>
       <c r="I584" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J584" s="11">
         <v>2023</v>
@@ -43639,7 +43636,7 @@
         <v>1327</v>
       </c>
       <c r="I585" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J585" s="11">
         <v>2023</v>
@@ -43698,7 +43695,7 @@
         <v>1462</v>
       </c>
       <c r="I586" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J586" s="11">
         <v>2024</v>
@@ -43757,7 +43754,7 @@
         <v>1446</v>
       </c>
       <c r="I587" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J587" s="11">
         <v>2025</v>
@@ -43816,7 +43813,7 @@
         <v>1324</v>
       </c>
       <c r="I588" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J588" s="11">
         <v>2027</v>
@@ -43875,7 +43872,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J589" s="11">
         <v>2023</v>
@@ -43934,7 +43931,7 @@
         <v>1350</v>
       </c>
       <c r="I590" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J590" s="11">
         <v>2025</v>
@@ -43993,7 +43990,7 @@
         <v>1326</v>
       </c>
       <c r="I591" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J591" s="11">
         <v>2024</v>
@@ -44052,7 +44049,7 @@
         <v>703</v>
       </c>
       <c r="I592" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J592" s="11">
         <v>2024</v>
@@ -44111,7 +44108,7 @@
         <v>459</v>
       </c>
       <c r="I593" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J593" s="11">
         <v>2023</v>
@@ -44170,7 +44167,7 @@
         <v>710</v>
       </c>
       <c r="I594" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J594" s="11">
         <v>2026</v>
@@ -44229,7 +44226,7 @@
         <v>1563</v>
       </c>
       <c r="I595" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J595" s="11">
         <v>2026</v>
@@ -44288,7 +44285,7 @@
         <v>712</v>
       </c>
       <c r="I596" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J596" s="11">
         <v>2024</v>
@@ -44347,7 +44344,7 @@
         <v>715</v>
       </c>
       <c r="I597" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J597" s="11">
         <v>2025</v>
@@ -44406,7 +44403,7 @@
         <v>1621</v>
       </c>
       <c r="I598" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J598" s="11">
         <v>2024</v>
@@ -44465,7 +44462,7 @@
         <v>717</v>
       </c>
       <c r="I599" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J599" s="11">
         <v>2025</v>
@@ -44524,7 +44521,7 @@
         <v>480</v>
       </c>
       <c r="I600" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J600" s="11">
         <v>2024</v>
@@ -44583,7 +44580,7 @@
         <v>1445</v>
       </c>
       <c r="I601" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J601" s="11">
         <v>2023</v>
@@ -44642,7 +44639,7 @@
         <v>729</v>
       </c>
       <c r="I602" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J602" s="11">
         <v>2023</v>
@@ -44701,7 +44698,7 @@
         <v>731</v>
       </c>
       <c r="I603" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J603" s="11">
         <v>2025</v>
@@ -44760,7 +44757,7 @@
         <v>735</v>
       </c>
       <c r="I604" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J604" s="11">
         <v>2024</v>
@@ -44819,7 +44816,7 @@
         <v>1329</v>
       </c>
       <c r="I605" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J605" s="11">
         <v>2025</v>
@@ -44878,7 +44875,7 @@
         <v>1374</v>
       </c>
       <c r="I606" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J606" s="11">
         <v>2020</v>
@@ -44937,7 +44934,7 @@
         <v>1311</v>
       </c>
       <c r="I607" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J607" s="11">
         <v>2024</v>
@@ -44996,7 +44993,7 @@
         <v>743</v>
       </c>
       <c r="I608" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J608" s="11">
         <v>2025</v>
@@ -45055,7 +45052,7 @@
         <v>1615</v>
       </c>
       <c r="I609" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J609" s="11">
         <v>2024</v>
@@ -45114,7 +45111,7 @@
         <v>748</v>
       </c>
       <c r="I610" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J610" s="11">
         <v>2023</v>
@@ -45173,7 +45170,7 @@
         <v>1519</v>
       </c>
       <c r="I611" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J611" s="11">
         <v>2024</v>
@@ -45232,7 +45229,7 @@
         <v>752</v>
       </c>
       <c r="I612" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J612" s="11">
         <v>2023</v>
@@ -45291,7 +45288,7 @@
         <v>422</v>
       </c>
       <c r="I613" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J613" s="11">
         <v>2026</v>
@@ -45350,7 +45347,7 @@
         <v>1464</v>
       </c>
       <c r="I614" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J614" s="11">
         <v>2024</v>
@@ -45409,7 +45406,7 @@
         <v>1571</v>
       </c>
       <c r="I615" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J615" s="11">
         <v>2025</v>
@@ -45468,7 +45465,7 @@
         <v>480</v>
       </c>
       <c r="I616" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J616" s="11">
         <v>2025</v>
@@ -45527,7 +45524,7 @@
         <v>757</v>
       </c>
       <c r="I617" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J617" s="11">
         <v>2023</v>
@@ -45586,7 +45583,7 @@
         <v>1415</v>
       </c>
       <c r="I618" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J618" s="11">
         <v>2023</v>
@@ -45645,7 +45642,7 @@
         <v>1530</v>
       </c>
       <c r="I619" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J619" s="11">
         <v>2026</v>
@@ -45704,7 +45701,7 @@
         <v>760</v>
       </c>
       <c r="I620" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J620" s="11">
         <v>2025</v>
@@ -45763,7 +45760,7 @@
         <v>763</v>
       </c>
       <c r="I621" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J621" s="11">
         <v>2025</v>
@@ -45822,7 +45819,7 @@
         <v>1447</v>
       </c>
       <c r="I622" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J622" s="11">
         <v>2023</v>
@@ -45881,7 +45878,7 @@
         <v>1412</v>
       </c>
       <c r="I623" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J623" s="11">
         <v>2024</v>
@@ -45940,7 +45937,7 @@
         <v>765</v>
       </c>
       <c r="I624" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J624" s="11">
         <v>2024</v>
@@ -45999,7 +45996,7 @@
         <v>1622</v>
       </c>
       <c r="I625" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J625" s="11">
         <v>2024</v>
@@ -46058,7 +46055,7 @@
         <v>767</v>
       </c>
       <c r="I626" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J626" s="11">
         <v>2024</v>
@@ -46117,7 +46114,7 @@
         <v>768</v>
       </c>
       <c r="I627" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J627" s="11">
         <v>2023</v>
@@ -46176,7 +46173,7 @@
         <v>774</v>
       </c>
       <c r="I628" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J628" s="11">
         <v>2024</v>
@@ -46235,7 +46232,7 @@
         <v>1383</v>
       </c>
       <c r="I629" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J629" s="11">
         <v>2024</v>
@@ -46294,7 +46291,7 @@
         <v>775</v>
       </c>
       <c r="I630" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J630" s="11">
         <v>2023</v>
@@ -46353,7 +46350,7 @@
         <v>1398</v>
       </c>
       <c r="I631" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J631" s="11">
         <v>2023</v>
@@ -46412,7 +46409,7 @@
         <v>779</v>
       </c>
       <c r="I632" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J632" s="11">
         <v>2023</v>
@@ -46471,7 +46468,7 @@
         <v>781</v>
       </c>
       <c r="I633" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J633" s="11">
         <v>2024</v>
@@ -46530,7 +46527,7 @@
         <v>783</v>
       </c>
       <c r="I634" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J634" s="11">
         <v>2024</v>
@@ -46589,7 +46586,7 @@
         <v>1341</v>
       </c>
       <c r="I635" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J635" s="11">
         <v>2022</v>
@@ -46648,7 +46645,7 @@
         <v>1438</v>
       </c>
       <c r="I636" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J636" s="11">
         <v>2021</v>
@@ -46707,7 +46704,7 @@
         <v>1620</v>
       </c>
       <c r="I637" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J637" s="11">
         <v>2024</v>
@@ -46766,7 +46763,7 @@
         <v>785</v>
       </c>
       <c r="I638" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J638" s="11">
         <v>2025</v>
@@ -46825,7 +46822,7 @@
         <v>1413</v>
       </c>
       <c r="I639" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J639" s="11">
         <v>2024</v>
@@ -46884,7 +46881,7 @@
         <v>606</v>
       </c>
       <c r="I640" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J640" s="11">
         <v>2024</v>
@@ -46943,7 +46940,7 @@
         <v>801</v>
       </c>
       <c r="I641" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J641" s="11">
         <v>2025</v>
@@ -47002,7 +46999,7 @@
         <v>811</v>
       </c>
       <c r="I642" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J642" s="11">
         <v>2024</v>
@@ -47061,7 +47058,7 @@
         <v>1358</v>
       </c>
       <c r="I643" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J643" s="11">
         <v>2024</v>
@@ -47120,7 +47117,7 @@
         <v>1343</v>
       </c>
       <c r="I644" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J644" s="11">
         <v>2026</v>
@@ -47179,7 +47176,7 @@
         <v>818</v>
       </c>
       <c r="I645" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J645" s="11">
         <v>2023</v>
@@ -47238,7 +47235,7 @@
         <v>820</v>
       </c>
       <c r="I646" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J646" s="11">
         <v>2024</v>
@@ -47297,7 +47294,7 @@
         <v>1437</v>
       </c>
       <c r="I647" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J647" s="11">
         <v>2026</v>
@@ -47356,7 +47353,7 @@
         <v>1564</v>
       </c>
       <c r="I648" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J648" s="11">
         <v>2027</v>
@@ -47415,7 +47412,7 @@
         <v>824</v>
       </c>
       <c r="I649" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J649" s="11">
         <v>2023</v>
@@ -47474,7 +47471,7 @@
         <v>826</v>
       </c>
       <c r="I650" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J650" s="11">
         <v>2025</v>
@@ -47533,7 +47530,7 @@
         <v>829</v>
       </c>
       <c r="I651" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J651" s="11">
         <v>2024</v>
@@ -47592,7 +47589,7 @@
         <v>1405</v>
       </c>
       <c r="I652" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J652" s="11">
         <v>2024</v>
@@ -47651,7 +47648,7 @@
         <v>833</v>
       </c>
       <c r="I653" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J653" s="11">
         <v>2025</v>
@@ -47710,7 +47707,7 @@
         <v>842</v>
       </c>
       <c r="I654" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J654" s="11">
         <v>2024</v>
@@ -47769,7 +47766,7 @@
         <v>844</v>
       </c>
       <c r="I655" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J655" s="11">
         <v>2026</v>
@@ -47828,7 +47825,7 @@
         <v>1399</v>
       </c>
       <c r="I656" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J656" s="11">
         <v>2023</v>
@@ -47887,7 +47884,7 @@
         <v>480</v>
       </c>
       <c r="I657" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J657" s="11">
         <v>2023</v>
@@ -47946,7 +47943,7 @@
         <v>849</v>
       </c>
       <c r="I658" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J658" s="11">
         <v>2024</v>
@@ -48005,7 +48002,7 @@
         <v>851</v>
       </c>
       <c r="I659" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J659" s="11">
         <v>2024</v>
@@ -48064,7 +48061,7 @@
         <v>852</v>
       </c>
       <c r="I660" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J660" s="11">
         <v>2024</v>
@@ -48123,7 +48120,7 @@
         <v>853</v>
       </c>
       <c r="I661" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J661" s="11">
         <v>2024</v>
@@ -48182,7 +48179,7 @@
         <v>857</v>
       </c>
       <c r="I662" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J662" s="11">
         <v>2023</v>
@@ -48241,7 +48238,7 @@
         <v>861</v>
       </c>
       <c r="I663" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J663" s="11">
         <v>2026</v>
@@ -48300,7 +48297,7 @@
         <v>871</v>
       </c>
       <c r="I664" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J664" s="11">
         <v>2026</v>
@@ -48359,7 +48356,7 @@
         <v>1322</v>
       </c>
       <c r="I665" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J665" s="11">
         <v>2025</v>
@@ -48418,7 +48415,7 @@
         <v>1569</v>
       </c>
       <c r="I666" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J666" s="11">
         <v>2025</v>
@@ -48477,7 +48474,7 @@
         <v>1468</v>
       </c>
       <c r="I667" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J667" s="11">
         <v>2024</v>
@@ -48536,7 +48533,7 @@
         <v>879</v>
       </c>
       <c r="I668" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J668" s="11">
         <v>2023</v>
@@ -48595,7 +48592,7 @@
         <v>880</v>
       </c>
       <c r="I669" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J669" s="11">
         <v>2024</v>
@@ -48654,7 +48651,7 @@
         <v>886</v>
       </c>
       <c r="I670" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J670" s="11">
         <v>2023</v>
@@ -48713,7 +48710,7 @@
         <v>1542</v>
       </c>
       <c r="I671" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J671" s="11">
         <v>2025</v>
@@ -48772,7 +48769,7 @@
         <v>896</v>
       </c>
       <c r="I672" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J672" s="11">
         <v>2023</v>
@@ -48831,7 +48828,7 @@
         <v>904</v>
       </c>
       <c r="I673" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J673" s="11">
         <v>2023</v>
@@ -48890,7 +48887,7 @@
         <v>1522</v>
       </c>
       <c r="I674" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J674" s="11">
         <v>2023</v>
@@ -48949,7 +48946,7 @@
         <v>920</v>
       </c>
       <c r="I675" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J675" s="11">
         <v>2024</v>
@@ -49008,7 +49005,7 @@
         <v>1404</v>
       </c>
       <c r="I676" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J676" s="11">
         <v>2023</v>
@@ -49067,7 +49064,7 @@
         <v>1391</v>
       </c>
       <c r="I677" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J677" s="11">
         <v>2022</v>
@@ -49126,7 +49123,7 @@
         <v>1441</v>
       </c>
       <c r="I678" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J678" s="11">
         <v>2023</v>
@@ -49185,7 +49182,7 @@
         <v>924</v>
       </c>
       <c r="I679" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J679" s="11">
         <v>2023</v>
@@ -49244,7 +49241,7 @@
         <v>926</v>
       </c>
       <c r="I680" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J680" s="11">
         <v>2023</v>
@@ -49303,7 +49300,7 @@
         <v>429</v>
       </c>
       <c r="I681" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J681" s="11">
         <v>2023</v>
@@ -49362,7 +49359,7 @@
         <v>437</v>
       </c>
       <c r="I682" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J682" s="11">
         <v>2026</v>
@@ -49421,7 +49418,7 @@
         <v>468</v>
       </c>
       <c r="I683" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J683" s="11">
         <v>2024</v>
@@ -49480,7 +49477,7 @@
         <v>305</v>
       </c>
       <c r="I684" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J684" s="11">
         <v>2027</v>
@@ -49539,7 +49536,7 @@
         <v>470</v>
       </c>
       <c r="I685" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J685" s="11">
         <v>2024</v>
@@ -49598,7 +49595,7 @@
         <v>478</v>
       </c>
       <c r="I686" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J686" s="11">
         <v>2023</v>
@@ -49657,7 +49654,7 @@
         <v>1495</v>
       </c>
       <c r="I687" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J687" s="11">
         <v>2025</v>
@@ -49716,7 +49713,7 @@
         <v>496</v>
       </c>
       <c r="I688" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J688" s="11">
         <v>2024</v>
@@ -49775,7 +49772,7 @@
         <v>480</v>
       </c>
       <c r="I689" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J689" s="11">
         <v>2024</v>
@@ -49834,7 +49831,7 @@
         <v>519</v>
       </c>
       <c r="I690" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J690" s="11">
         <v>2026</v>
@@ -49893,7 +49890,7 @@
         <v>527</v>
       </c>
       <c r="I691" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J691" s="11">
         <v>2024</v>
@@ -49952,7 +49949,7 @@
         <v>459</v>
       </c>
       <c r="I692" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J692" s="11">
         <v>2024</v>
@@ -50011,7 +50008,7 @@
         <v>535</v>
       </c>
       <c r="I693" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J693" s="11">
         <v>2023</v>
@@ -50070,7 +50067,7 @@
         <v>553</v>
       </c>
       <c r="I694" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J694" s="11">
         <v>2025</v>
@@ -50129,7 +50126,7 @@
         <v>555</v>
       </c>
       <c r="I695" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J695" s="11">
         <v>2023</v>
@@ -50188,7 +50185,7 @@
         <v>557</v>
       </c>
       <c r="I696" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J696" s="11">
         <v>2024</v>
@@ -50247,7 +50244,7 @@
         <v>1355</v>
       </c>
       <c r="I697" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J697" s="11">
         <v>2024</v>
@@ -50306,7 +50303,7 @@
         <v>1316</v>
       </c>
       <c r="I698" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J698" s="11">
         <v>2025</v>
@@ -50365,7 +50362,7 @@
         <v>593</v>
       </c>
       <c r="I699" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J699" s="11">
         <v>2023</v>
@@ -50424,7 +50421,7 @@
         <v>621</v>
       </c>
       <c r="I700" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J700" s="11">
         <v>2026</v>
@@ -50483,7 +50480,7 @@
         <v>623</v>
       </c>
       <c r="I701" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J701" s="11">
         <v>2023</v>
@@ -50542,7 +50539,7 @@
         <v>1403</v>
       </c>
       <c r="I702" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J702" s="11">
         <v>2022</v>
@@ -50601,7 +50598,7 @@
         <v>638</v>
       </c>
       <c r="I703" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J703" s="11">
         <v>2023</v>
@@ -50660,7 +50657,7 @@
         <v>1479</v>
       </c>
       <c r="I704" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J704" s="11">
         <v>2023</v>
@@ -50719,7 +50716,7 @@
         <v>641</v>
       </c>
       <c r="I705" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J705" s="11">
         <v>2027</v>
@@ -50778,7 +50775,7 @@
         <v>645</v>
       </c>
       <c r="I706" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J706" s="11">
         <v>2025</v>
@@ -50837,7 +50834,7 @@
         <v>649</v>
       </c>
       <c r="I707" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J707" s="11">
         <v>2024</v>
@@ -50896,7 +50893,7 @@
         <v>1439</v>
       </c>
       <c r="I708" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J708" s="11">
         <v>2024</v>
@@ -50955,7 +50952,7 @@
         <v>667</v>
       </c>
       <c r="I709" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J709" s="11">
         <v>2023</v>
@@ -51014,7 +51011,7 @@
         <v>673</v>
       </c>
       <c r="I710" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J710" s="11">
         <v>2024</v>
@@ -51073,7 +51070,7 @@
         <v>682</v>
       </c>
       <c r="I711" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J711" s="11">
         <v>2024</v>
@@ -51132,7 +51129,7 @@
         <v>695</v>
       </c>
       <c r="I712" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J712" s="11">
         <v>2024</v>
@@ -51191,7 +51188,7 @@
         <v>1490</v>
       </c>
       <c r="I713" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J713" s="11">
         <v>2025</v>
@@ -51250,7 +51247,7 @@
         <v>705</v>
       </c>
       <c r="I714" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J714" s="11">
         <v>2024</v>
@@ -51309,7 +51306,7 @@
         <v>707</v>
       </c>
       <c r="I715" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J715" s="11">
         <v>2023</v>
@@ -51368,7 +51365,7 @@
         <v>714</v>
       </c>
       <c r="I716" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J716" s="11">
         <v>2023</v>
@@ -51427,7 +51424,7 @@
         <v>1385</v>
       </c>
       <c r="I717" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J717" s="11">
         <v>2025</v>
@@ -51486,7 +51483,7 @@
         <v>723</v>
       </c>
       <c r="I718" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J718" s="11">
         <v>2025</v>
@@ -51545,7 +51542,7 @@
         <v>1335</v>
       </c>
       <c r="I719" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J719" s="11">
         <v>2025</v>
@@ -51604,7 +51601,7 @@
         <v>739</v>
       </c>
       <c r="I720" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J720" s="11">
         <v>2024</v>
@@ -51663,7 +51660,7 @@
         <v>746</v>
       </c>
       <c r="I721" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J721" s="11">
         <v>2024</v>
@@ -51722,7 +51719,7 @@
         <v>1625</v>
       </c>
       <c r="I722" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J722" s="11">
         <v>2024</v>
@@ -51781,7 +51778,7 @@
         <v>753</v>
       </c>
       <c r="I723" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J723" s="11">
         <v>2024</v>
@@ -51840,7 +51837,7 @@
         <v>755</v>
       </c>
       <c r="I724" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J724" s="11">
         <v>2024</v>
@@ -51899,7 +51896,7 @@
         <v>759</v>
       </c>
       <c r="I725" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J725" s="11">
         <v>2024</v>
@@ -51958,7 +51955,7 @@
         <v>676</v>
       </c>
       <c r="I726" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J726" s="11">
         <v>2025</v>
@@ -52017,7 +52014,7 @@
         <v>792</v>
       </c>
       <c r="I727" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J727" s="11">
         <v>2023</v>
@@ -52076,7 +52073,7 @@
         <v>797</v>
       </c>
       <c r="I728" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J728" s="11">
         <v>2025</v>
@@ -52135,7 +52132,7 @@
         <v>1424</v>
       </c>
       <c r="I729" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J729" s="11">
         <v>2023</v>
@@ -52194,7 +52191,7 @@
         <v>803</v>
       </c>
       <c r="I730" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J730" s="11">
         <v>2024</v>
@@ -52253,7 +52250,7 @@
         <v>814</v>
       </c>
       <c r="I731" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J731" s="11">
         <v>2026</v>
@@ -52312,7 +52309,7 @@
         <v>816</v>
       </c>
       <c r="I732" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J732" s="11">
         <v>2025</v>
@@ -52371,7 +52368,7 @@
         <v>1337</v>
       </c>
       <c r="I733" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J733" s="11">
         <v>2024</v>
@@ -52430,7 +52427,7 @@
         <v>834</v>
       </c>
       <c r="I734" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J734" s="11">
         <v>2023</v>
@@ -52489,7 +52486,7 @@
         <v>838</v>
       </c>
       <c r="I735" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J735" s="11">
         <v>2024</v>
@@ -52548,7 +52545,7 @@
         <v>840</v>
       </c>
       <c r="I736" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J736" s="11">
         <v>2023</v>
@@ -52607,7 +52604,7 @@
         <v>1386</v>
       </c>
       <c r="I737" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J737" s="11">
         <v>2024</v>
@@ -52666,7 +52663,7 @@
         <v>1321</v>
       </c>
       <c r="I738" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J738" s="11">
         <v>2024</v>
@@ -52725,7 +52722,7 @@
         <v>1466</v>
       </c>
       <c r="I739" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J739" s="11">
         <v>2024</v>
@@ -52784,7 +52781,7 @@
         <v>863</v>
       </c>
       <c r="I740" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J740" s="11">
         <v>2024</v>
@@ -52843,7 +52840,7 @@
         <v>888</v>
       </c>
       <c r="I741" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J741" s="11">
         <v>2023</v>
@@ -52902,7 +52899,7 @@
         <v>908</v>
       </c>
       <c r="I742" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J742" s="11">
         <v>2023</v>
@@ -52961,7 +52958,7 @@
         <v>703</v>
       </c>
       <c r="I743" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J743" s="11">
         <v>2023</v>
@@ -53020,7 +53017,7 @@
         <v>911</v>
       </c>
       <c r="I744" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J744" s="11">
         <v>2025</v>
@@ -53079,7 +53076,7 @@
         <v>922</v>
       </c>
       <c r="I745" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J745" s="11">
         <v>2025</v>
@@ -53138,7 +53135,7 @@
         <v>454</v>
       </c>
       <c r="I746" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J746" s="11">
         <v>2023</v>
@@ -53197,7 +53194,7 @@
         <v>456</v>
       </c>
       <c r="I747" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J747" s="11">
         <v>2024</v>
@@ -53256,7 +53253,7 @@
         <v>459</v>
       </c>
       <c r="I748" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J748" s="11">
         <v>2025</v>
@@ -53315,7 +53312,7 @@
         <v>494</v>
       </c>
       <c r="I749" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J749" s="11">
         <v>2025</v>
@@ -53374,7 +53371,7 @@
         <v>1422</v>
       </c>
       <c r="I750" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J750" s="11">
         <v>2025</v>
@@ -53433,7 +53430,7 @@
         <v>1433</v>
       </c>
       <c r="I751" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J751" s="11">
         <v>2022</v>
@@ -53492,7 +53489,7 @@
         <v>1361</v>
       </c>
       <c r="I752" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J752" s="11">
         <v>2027</v>
@@ -53551,7 +53548,7 @@
         <v>1423</v>
       </c>
       <c r="I753" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J753" s="11">
         <v>2025</v>
@@ -53610,7 +53607,7 @@
         <v>523</v>
       </c>
       <c r="I754" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J754" s="11">
         <v>2025</v>
@@ -53669,7 +53666,7 @@
         <v>1375</v>
       </c>
       <c r="I755" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J755" s="11">
         <v>2021</v>
@@ -53728,7 +53725,7 @@
         <v>543</v>
       </c>
       <c r="I756" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J756" s="11">
         <v>2024</v>
@@ -53787,7 +53784,7 @@
         <v>1623</v>
       </c>
       <c r="I757" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J757" s="11">
         <v>2027</v>
@@ -53846,7 +53843,7 @@
         <v>1598</v>
       </c>
       <c r="I758" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J758" s="11">
         <v>2025</v>
@@ -53905,7 +53902,7 @@
         <v>459</v>
       </c>
       <c r="I759" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J759" s="11">
         <v>2024</v>
@@ -53964,7 +53961,7 @@
         <v>570</v>
       </c>
       <c r="I760" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J760" s="11">
         <v>2023</v>
@@ -54023,7 +54020,7 @@
         <v>577</v>
       </c>
       <c r="I761" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J761" s="11">
         <v>2025</v>
@@ -54082,7 +54079,7 @@
         <v>1364</v>
       </c>
       <c r="I762" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J762" s="11">
         <v>2027</v>
@@ -54141,7 +54138,7 @@
         <v>1387</v>
       </c>
       <c r="I763" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J763" s="11">
         <v>2023</v>
@@ -54200,7 +54197,7 @@
         <v>582</v>
       </c>
       <c r="I764" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J764" s="11">
         <v>2023</v>
@@ -54259,7 +54256,7 @@
         <v>586</v>
       </c>
       <c r="I765" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J765" s="11">
         <v>2024</v>
@@ -54318,7 +54315,7 @@
         <v>589</v>
       </c>
       <c r="I766" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J766" s="11">
         <v>2023</v>
@@ -54377,7 +54374,7 @@
         <v>1409</v>
       </c>
       <c r="I767" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J767" s="11">
         <v>2023</v>
@@ -54436,7 +54433,7 @@
         <v>598</v>
       </c>
       <c r="I768" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J768" s="11">
         <v>2027</v>
@@ -54495,7 +54492,7 @@
         <v>1453</v>
       </c>
       <c r="I769" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J769" s="11">
         <v>2023</v>
@@ -54554,7 +54551,7 @@
         <v>1502</v>
       </c>
       <c r="I770" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J770" s="11">
         <v>2026</v>
@@ -54613,7 +54610,7 @@
         <v>608</v>
       </c>
       <c r="I771" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J771" s="11">
         <v>2024</v>
@@ -54672,7 +54669,7 @@
         <v>610</v>
       </c>
       <c r="I772" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J772" s="11">
         <v>2025</v>
@@ -54731,7 +54728,7 @@
         <v>612</v>
       </c>
       <c r="I773" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J773" s="11">
         <v>2025</v>
@@ -54790,7 +54787,7 @@
         <v>616</v>
       </c>
       <c r="I774" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J774" s="11">
         <v>2024</v>
@@ -54849,7 +54846,7 @@
         <v>630</v>
       </c>
       <c r="I775" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J775" s="11">
         <v>2025</v>
@@ -54908,7 +54905,7 @@
         <v>636</v>
       </c>
       <c r="I776" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J776" s="11">
         <v>2023</v>
@@ -54967,7 +54964,7 @@
         <v>648</v>
       </c>
       <c r="I777" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J777" s="11">
         <v>2024</v>
@@ -55026,7 +55023,7 @@
         <v>1323</v>
       </c>
       <c r="I778" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J778" s="11">
         <v>2023</v>
@@ -55085,7 +55082,7 @@
         <v>1604</v>
       </c>
       <c r="I779" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J779" s="11">
         <v>2024</v>
@@ -55144,7 +55141,7 @@
         <v>657</v>
       </c>
       <c r="I780" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J780" s="11">
         <v>2024</v>
@@ -55203,7 +55200,7 @@
         <v>1532</v>
       </c>
       <c r="I781" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J781" s="11">
         <v>2024</v>
@@ -55262,7 +55259,7 @@
         <v>1325</v>
       </c>
       <c r="I782" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J782" s="11">
         <v>2023</v>
@@ -55321,7 +55318,7 @@
         <v>1485</v>
       </c>
       <c r="I783" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J783" s="11">
         <v>2024</v>
@@ -55380,7 +55377,7 @@
         <v>459</v>
       </c>
       <c r="I784" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J784" s="11">
         <v>2023</v>
@@ -55439,7 +55436,7 @@
         <v>1392</v>
       </c>
       <c r="I785" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J785" s="11">
         <v>2023</v>
@@ -55498,7 +55495,7 @@
         <v>665</v>
       </c>
       <c r="I786" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J786" s="11">
         <v>2024</v>
@@ -55557,7 +55554,7 @@
         <v>1400</v>
       </c>
       <c r="I787" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J787" s="11">
         <v>2022</v>
@@ -55616,7 +55613,7 @@
         <v>675</v>
       </c>
       <c r="I788" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J788" s="11">
         <v>2024</v>
@@ -55675,7 +55672,7 @@
         <v>1396</v>
       </c>
       <c r="I789" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J789" s="11">
         <v>2023</v>
@@ -55734,7 +55731,7 @@
         <v>687</v>
       </c>
       <c r="I790" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J790" s="11">
         <v>2025</v>
@@ -55793,7 +55790,7 @@
         <v>1414</v>
       </c>
       <c r="I791" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J791" s="11">
         <v>2026</v>
@@ -55852,7 +55849,7 @@
         <v>697</v>
       </c>
       <c r="I792" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J792" s="11">
         <v>2023</v>
@@ -55911,7 +55908,7 @@
         <v>480</v>
       </c>
       <c r="I793" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J793" s="11">
         <v>2024</v>
@@ -55970,7 +55967,7 @@
         <v>708</v>
       </c>
       <c r="I794" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J794" s="11">
         <v>2024</v>
@@ -56029,7 +56026,7 @@
         <v>1449</v>
       </c>
       <c r="I795" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J795" s="11">
         <v>2024</v>
@@ -56088,7 +56085,7 @@
         <v>721</v>
       </c>
       <c r="I796" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J796" s="11">
         <v>2023</v>
@@ -56147,7 +56144,7 @@
         <v>725</v>
       </c>
       <c r="I797" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J797" s="11">
         <v>2023</v>
@@ -56206,7 +56203,7 @@
         <v>727</v>
       </c>
       <c r="I798" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J798" s="11">
         <v>2024</v>
@@ -56265,7 +56262,7 @@
         <v>733</v>
       </c>
       <c r="I799" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J799" s="11">
         <v>2025</v>
@@ -56324,7 +56321,7 @@
         <v>1310</v>
       </c>
       <c r="I800" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J800" s="11">
         <v>2025</v>
@@ -56383,7 +56380,7 @@
         <v>1471</v>
       </c>
       <c r="I801" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J801" s="11">
         <v>2025</v>
@@ -56442,7 +56439,7 @@
         <v>750</v>
       </c>
       <c r="I802" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J802" s="11">
         <v>2026</v>
@@ -56501,7 +56498,7 @@
         <v>1357</v>
       </c>
       <c r="I803" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J803" s="11">
         <v>2023</v>
@@ -56560,7 +56557,7 @@
         <v>480</v>
       </c>
       <c r="I804" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J804" s="11">
         <v>2026</v>
@@ -56619,7 +56616,7 @@
         <v>1389</v>
       </c>
       <c r="I805" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J805" s="11">
         <v>2025</v>
@@ -56678,7 +56675,7 @@
         <v>777</v>
       </c>
       <c r="I806" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J806" s="11">
         <v>2024</v>
@@ -56737,7 +56734,7 @@
         <v>1578</v>
       </c>
       <c r="I807" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J807" s="11">
         <v>2026</v>
@@ -56796,7 +56793,7 @@
         <v>794</v>
       </c>
       <c r="I808" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J808" s="11">
         <v>2023</v>
@@ -56855,7 +56852,7 @@
         <v>795</v>
       </c>
       <c r="I809" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J809" s="11">
         <v>2026</v>
@@ -56914,7 +56911,7 @@
         <v>806</v>
       </c>
       <c r="I810" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J810" s="11">
         <v>2024</v>
@@ -56973,7 +56970,7 @@
         <v>808</v>
       </c>
       <c r="I811" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J811" s="11">
         <v>2024</v>
@@ -57032,7 +57029,7 @@
         <v>1319</v>
       </c>
       <c r="I812" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J812" s="11">
         <v>2026</v>
@@ -57091,7 +57088,7 @@
         <v>822</v>
       </c>
       <c r="I813" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J813" s="11">
         <v>2025</v>
@@ -57150,7 +57147,7 @@
         <v>1626</v>
       </c>
       <c r="I814" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J814" s="11">
         <v>2023</v>
@@ -57209,7 +57206,7 @@
         <v>1397</v>
       </c>
       <c r="I815" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J815" s="11">
         <v>2024</v>
@@ -57268,7 +57265,7 @@
         <v>837</v>
       </c>
       <c r="I816" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J816" s="11">
         <v>2024</v>
@@ -57327,7 +57324,7 @@
         <v>1613</v>
       </c>
       <c r="I817" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J817" s="11">
         <v>2024</v>
@@ -57386,7 +57383,7 @@
         <v>855</v>
       </c>
       <c r="I818" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J818" s="11">
         <v>2026</v>
@@ -57445,7 +57442,7 @@
         <v>858</v>
       </c>
       <c r="I819" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J819" s="11">
         <v>2023</v>
@@ -57504,7 +57501,7 @@
         <v>1597</v>
       </c>
       <c r="I820" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J820" s="11">
         <v>2025</v>
@@ -57563,7 +57560,7 @@
         <v>864</v>
       </c>
       <c r="I821" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J821" s="11">
         <v>2024</v>
@@ -57622,7 +57619,7 @@
         <v>865</v>
       </c>
       <c r="I822" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J822" s="11">
         <v>2023</v>
@@ -57681,7 +57678,7 @@
         <v>875</v>
       </c>
       <c r="I823" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J823" s="11">
         <v>2024</v>
@@ -57740,7 +57737,7 @@
         <v>881</v>
       </c>
       <c r="I824" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J824" s="11">
         <v>2025</v>
@@ -57799,7 +57796,7 @@
         <v>885</v>
       </c>
       <c r="I825" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J825" s="11">
         <v>2023</v>
@@ -57858,7 +57855,7 @@
         <v>890</v>
       </c>
       <c r="I826" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J826" s="11">
         <v>2025</v>
@@ -57917,7 +57914,7 @@
         <v>1339</v>
       </c>
       <c r="I827" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J827" s="11">
         <v>2023</v>
@@ -57976,7 +57973,7 @@
         <v>900</v>
       </c>
       <c r="I828" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J828" s="11">
         <v>2023</v>
@@ -58035,7 +58032,7 @@
         <v>906</v>
       </c>
       <c r="I829" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J829" s="11">
         <v>2023</v>
@@ -58094,7 +58091,7 @@
         <v>1390</v>
       </c>
       <c r="I830" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J830" s="11">
         <v>2024</v>
@@ -58153,7 +58150,7 @@
         <v>909</v>
       </c>
       <c r="I831" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J831" s="11">
         <v>2023</v>
@@ -58212,7 +58209,7 @@
         <v>915</v>
       </c>
       <c r="I832" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J832" s="11">
         <v>2025</v>
@@ -58271,7 +58268,7 @@
         <v>1592</v>
       </c>
       <c r="I833" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J833" s="11">
         <v>2025</v>
@@ -58330,7 +58327,7 @@
         <v>489</v>
       </c>
       <c r="I834" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J834" s="11">
         <v>2024</v>
@@ -58389,7 +58386,7 @@
         <v>600</v>
       </c>
       <c r="I835" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J835" s="11">
         <v>2024</v>
@@ -58448,7 +58445,7 @@
         <v>691</v>
       </c>
       <c r="I836" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="J836" s="11">
         <v>2025</v>
@@ -59826,11 +59823,7 @@
       <c r="M1284"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S836" xr:uid="{9278881D-A3FD-4B4C-B916-ECF09103B222}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S836">
-      <sortCondition ref="I1:I836"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:S836" xr:uid="{9278881D-A3FD-4B4C-B916-ECF09103B222}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
